--- a/medicine/Enfance/Anne_Simon_(autrice_de_bande_dessinée)/Anne_Simon_(autrice_de_bande_dessinée).xlsx
+++ b/medicine/Enfance/Anne_Simon_(autrice_de_bande_dessinée)/Anne_Simon_(autrice_de_bande_dessinée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anne_Simon_(autrice_de_bande_dessin%C3%A9e)</t>
+          <t>Anne_Simon_(autrice_de_bande_dessinée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Simon, née le 21 juillet 1980 à La Crèche (Deux-Sèvres), est une autrice de bande dessinée et illustratrice française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anne_Simon_(autrice_de_bande_dessin%C3%A9e)</t>
+          <t>Anne_Simon_(autrice_de_bande_dessinée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Simon entre à l’École supérieure de l’image d'Angoulême puis à l'École nationale supérieure des arts décoratifs de Paris. Elle participe à la création de la revue Dopututto et des éditions Misma où elle développe sa série Les Contes du Marylène (La Geste d'Aglaé, Cixitite Impératrice et Boris l'Enfant Patate)[1].
-Elle reçoit en 2004 le prix Jeunes Talents au Festival international de la bande dessinée d'Angoulême[2] et sort sa première bande dessinée, Perséphone aux enfers (Michel Lagarde) en 2006. Elle publie trois biographies dessinées chez Dargaud Freud, Marx et Einstein en collaboration avec la scénariste Corinne Maier. Elle travaille en parallèle en tant qu'illustratrice pour la presse et l'édition jeunesse.
-En 2020 paraît le volume 4 de Gousse &amp; Gigot et l'album figure dans la sélection pour le Festival d'Angoulême 2021[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Simon entre à l’École supérieure de l’image d'Angoulême puis à l'École nationale supérieure des arts décoratifs de Paris. Elle participe à la création de la revue Dopututto et des éditions Misma où elle développe sa série Les Contes du Marylène (La Geste d'Aglaé, Cixitite Impératrice et Boris l'Enfant Patate).
+Elle reçoit en 2004 le prix Jeunes Talents au Festival international de la bande dessinée d'Angoulême et sort sa première bande dessinée, Perséphone aux enfers (Michel Lagarde) en 2006. Elle publie trois biographies dessinées chez Dargaud Freud, Marx et Einstein en collaboration avec la scénariste Corinne Maier. Elle travaille en parallèle en tant qu'illustratrice pour la presse et l'édition jeunesse.
+En 2020 paraît le volume 4 de Gousse &amp; Gigot et l'album figure dans la sélection pour le Festival d'Angoulême 2021.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anne_Simon_(autrice_de_bande_dessin%C3%A9e)</t>
+          <t>Anne_Simon_(autrice_de_bande_dessinée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums
-Pour l’honneur d’un coureur, tome 1 de la série Les petites prouesses de Clara Pilpoile, Dargaud, (coll. « Poisson Pilote »), 2007
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pour l’honneur d’un coureur, tome 1 de la série Les petites prouesses de Clara Pilpoile, Dargaud, (coll. « Poisson Pilote »), 2007
 Viva Las Vegas, tome 2 de la série Les petites prouesses de Clara Pilpoile, Dargaud, (coll. « Poisson Pilote »), 2008
 Pignolo le bonobo, in Vive la politique, ouvrage collectif, Dargaud, (coll. « Poisson Pilote »), 2006
 Gousse &amp; Gigot n°1, Misma, 2006
@@ -555,22 +574,56 @@
 Perséphone aux Enfers, Michel Lagarde, 2006
 Terriens, ouvrage collectif, Les 400 coups, 2006
 Rognure, hors commerce réalisé à l’occasion des 24h de la BD d’Angoulême, Misma, 2008
-Tranches napolitaines, Dargaud, 2010[4]
-Freud, scénario de Corinne Maier, Dargaud, 2011 [5]
+Tranches napolitaines, Dargaud, 2010
+Freud, scénario de Corinne Maier, Dargaud, 2011 
 La Geste d'Aglaé, Misma, 2012, 120 p.  (ISBN 978-2-916254-20-3)
-Marx, scénario de Corinne Maier, Dargaud, 2013 [6]
+Marx, scénario de Corinne Maier, Dargaud, 2013 
 Cixtite impératrice, Misma, 2014, 80 p.  (ISBN 978-2-916254-39-5)
-Einstein, scénario de Corinne Maier, Dargaud, 2015 [7]
+Einstein, scénario de Corinne Maier, Dargaud, 2015 
 Encaisser !, Casterman, 2016
 Lorsque je regarde les enfants des autres, Cambourakis, 2016
-Boris, l'enfant patate, Misma, 2018 [8],[9]
-ABCD de la Typographie (participation), scénario de David Rault, Gallimard, 2018 [10],[11],[12]
-Gousse et Gigot, tome 4 : Les Exilés du Marylène[13], éd. Misma, janvier 2020
-Histoire dessinée de la France t. 9 : En âge florissant. De la Renaissance à la Réforme, co-édition éditions La Découverte et La Revue Dessinée / novembre 2020, avec Pascal Brioist[14],[15]
-Les Représentants, dessin collectif avec David Prudhomme, Alfred, et Sébastien Vassant, scénario de Vincent Farasse, Virages graphiques, 2022[16]
-L'Institut des benjamines, éd. Misma, 2022 - Sélection officielle du Festival d'Angoulême 2023
-Illustration
-Sorcières en colère, autrice : Fanny Joly, Gallimard, collection « Folio Cadet », 2006
+Boris, l'enfant patate, Misma, 2018 ,
+ABCD de la Typographie (participation), scénario de David Rault, Gallimard, 2018 
+Gousse et Gigot, tome 4 : Les Exilés du Marylène, éd. Misma, janvier 2020
+Histoire dessinée de la France t. 9 : En âge florissant. De la Renaissance à la Réforme, co-édition éditions La Découverte et La Revue Dessinée / novembre 2020, avec Pascal Brioist,
+Les Représentants, dessin collectif avec David Prudhomme, Alfred, et Sébastien Vassant, scénario de Vincent Farasse, Virages graphiques, 2022
+L'Institut des benjamines, éd. Misma, 2022 - Sélection officielle du Festival d'Angoulême 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne_Simon_(autrice_de_bande_dessinée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Simon_(autrice_de_bande_dessin%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sorcières en colère, autrice : Fanny Joly, Gallimard, collection « Folio Cadet », 2006
 La Conversation, auteur : Olivier Abel, Gallimard Jeunesse, collection « Chouette penser », 2006
 Ma langue à toutes les sauces, auteur : Christine Beiger, Albin Michel jeunesse, collection « Humour en mots », 2006  (ISBN 2-226-14932-5)
 Nous, les 14-17 ans, autrice : Anne-Marie Thomazeau, La Martinière jeunesse, Collection « Hydrogène », 2006
@@ -587,33 +640,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anne_Simon_(autrice_de_bande_dessin%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne_Simon_(autrice_de_bande_dessinée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anne_Simon_(autrice_de_bande_dessin%C3%A9e)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Première lauréate du concours Jeunes Talents de l’édition 2004 du festival international de la bande dessinée d’Angoulême[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Première lauréate du concours Jeunes Talents de l’édition 2004 du festival international de la bande dessinée d’Angoulême.</t>
         </is>
       </c>
     </row>
